--- a/Stand Count Anova Results.xlsx
+++ b/Stand Count Anova Results.xlsx
@@ -396,22 +396,22 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1071556740557.183</v>
+        <v>1071398185448.243</v>
       </c>
       <c r="B2">
-        <v>59530930030.95461</v>
+        <v>63023422673.42604</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>50.05076165236001</v>
+        <v>50.01732529931649</v>
       </c>
       <c r="E2">
-        <v>3.204767682187593</v>
+        <v>3.392781327709834</v>
       </c>
       <c r="F2">
-        <v>0.0005887104723495448</v>
+        <v>0.0003938781686189179</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
